--- a/data/getintervals/data_getintervals.xlsx
+++ b/data/getintervals/data_getintervals.xlsx
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -493,6 +493,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8+60</f>
+        <v>36952</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <f>C8+1</f>
+        <v>36953</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9+0</f>
+        <v>36953</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B11" si="0">C9+1</f>
+        <v>36954</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10+300</f>
+        <v>37254</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>37255</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11+50</f>
+        <v>37305</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -594,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>36890</v>
+        <v>36893</v>
       </c>
       <c r="C8" s="1">
         <v>36894</v>
@@ -652,7 +715,84 @@
         <v>37369</v>
       </c>
       <c r="C13" s="1">
-        <v>37369</v>
+        <v>37374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36890</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36953</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>37043</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37253</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>37302</v>
+      </c>
+      <c r="C20" s="1">
+        <v>37305</v>
       </c>
     </row>
   </sheetData>

--- a/data/getintervals/data_getintervals.xlsx
+++ b/data/getintervals/data_getintervals.xlsx
@@ -68,9 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -399,160 +401,395 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>36892</v>
       </c>
-      <c r="C2" s="1">
-        <f>B2+60</f>
+      <c r="C2" s="3">
+        <v>36895</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36896</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36896</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36897</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36911</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>36912</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36926</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36927</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36939</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>36940</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36955</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36956</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36986</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36987</v>
+      </c>
+      <c r="C9" s="3">
+        <v>37017</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>37018</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37037</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37038</v>
+      </c>
+      <c r="C11" s="3">
+        <v>37041</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>37042</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37048</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36911</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36912</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36926</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36927</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36939</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36940</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36955</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36956</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36986</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36987</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37017</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37018</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37048</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C20" s="1">
         <v>36952</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>C2+1</f>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
         <v>36953</v>
       </c>
-      <c r="C3" s="1">
-        <f>B3+365</f>
+      <c r="C21" s="1">
         <v>37318</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>C3+1</f>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
         <v>37319</v>
       </c>
-      <c r="C4" s="1">
-        <f>B4+50</f>
+      <c r="C22" s="1">
         <v>37369</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>36892</v>
       </c>
-      <c r="C5" s="1">
-        <f>B5+60</f>
+      <c r="C23" s="1">
         <v>36952</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <f>C5+1</f>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>36953</v>
       </c>
-      <c r="C6" s="1">
-        <f>B6+365</f>
+      <c r="C24" s="1">
         <v>37318</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <f>C6+1</f>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>37319</v>
       </c>
-      <c r="C7" s="1">
-        <f>B7+50</f>
+      <c r="C25" s="1">
         <v>37369</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
         <v>36892</v>
       </c>
-      <c r="C8" s="1">
-        <f>B8+60</f>
+      <c r="C26" s="1">
         <v>36952</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <f>C8+1</f>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
         <v>36953</v>
       </c>
-      <c r="C9" s="1">
-        <f>B9+0</f>
+      <c r="C27" s="1">
         <v>36953</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ref="B10:B11" si="0">C9+1</f>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
         <v>36954</v>
       </c>
-      <c r="C10" s="1">
-        <f>B10+300</f>
+      <c r="C28" s="1">
         <v>37254</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
         <v>37255</v>
       </c>
-      <c r="C11" s="1">
-        <f>B11+50</f>
+      <c r="C29" s="1">
         <v>37305</v>
       </c>
-      <c r="D11">
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
@@ -563,35 +800,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.2109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.92578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>36890</v>
+        <v>36888</v>
       </c>
       <c r="C2" s="1">
         <v>36894</v>
@@ -599,199 +836,386 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>36896</v>
       </c>
       <c r="C3" s="1">
-        <v>36901</v>
+        <v>36911</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>36906</v>
+        <v>36916</v>
       </c>
       <c r="C4" s="1">
-        <v>36921</v>
+        <v>36948</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>36951</v>
+        <v>36955</v>
       </c>
       <c r="C5" s="1">
-        <v>36956</v>
+        <v>36960</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>37319</v>
+        <v>36962</v>
       </c>
       <c r="C6" s="1">
-        <v>37319</v>
+        <v>36962</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>37369</v>
+        <v>36982</v>
       </c>
       <c r="C7" s="1">
-        <v>37369</v>
+        <v>36987</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>36893</v>
+        <v>37001</v>
       </c>
       <c r="C8" s="1">
-        <v>36894</v>
+        <v>37013</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>36896</v>
+        <v>37018</v>
       </c>
       <c r="C9" s="1">
-        <v>36901</v>
+        <v>37034</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>36906</v>
+        <v>37046</v>
       </c>
       <c r="C10" s="1">
-        <v>36921</v>
+        <v>37062</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>36951</v>
+        <v>36888</v>
       </c>
       <c r="C11" s="1">
-        <v>36956</v>
+        <v>36894</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>37319</v>
+        <v>36896</v>
       </c>
       <c r="C12" s="1">
-        <v>37319</v>
+        <v>36911</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>37369</v>
+        <v>36916</v>
       </c>
       <c r="C13" s="1">
-        <v>37374</v>
+        <v>36948</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>36890</v>
+        <v>36955</v>
       </c>
       <c r="C14" s="1">
-        <v>36894</v>
+        <v>36960</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>36896</v>
+        <v>36982</v>
       </c>
       <c r="C15" s="1">
-        <v>36901</v>
+        <v>36987</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>36906</v>
+        <v>37001</v>
       </c>
       <c r="C16" s="1">
-        <v>36921</v>
+        <v>37013</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>36953</v>
+        <v>37018</v>
       </c>
       <c r="C17" s="1">
-        <v>36954</v>
+        <v>37034</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>37043</v>
+        <v>37046</v>
       </c>
       <c r="C18" s="1">
-        <v>37047</v>
+        <v>37062</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>37253</v>
+        <v>36890</v>
       </c>
       <c r="C19" s="1">
-        <v>37258</v>
+        <v>36894</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>36951</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>37319</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>37369</v>
+      </c>
+      <c r="C24" s="1">
+        <v>37369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>36893</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>36951</v>
+      </c>
+      <c r="C28" s="1">
+        <v>36956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>37319</v>
+      </c>
+      <c r="C29" s="1">
+        <v>37319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>37369</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>36890</v>
+      </c>
+      <c r="C31" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C32" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C33" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>36953</v>
+      </c>
+      <c r="C34" s="1">
+        <v>36954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>37043</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>37253</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
         <v>37302</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C37" s="1">
         <v>37305</v>
       </c>
     </row>

--- a/data/getintervals/data_getintervals.xlsx
+++ b/data/getintervals/data_getintervals.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="exposure" sheetId="2" r:id="rId1"/>
     <sheet name="hosp" sheetId="1" r:id="rId2"/>
+    <sheet name="exposure (2)" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="hosp (2)" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>adm_date</t>
   </si>
@@ -48,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,11 +76,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +384,997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="11.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>36892</v>
+      </c>
+      <c r="C2" s="3">
+        <v>36895</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36896</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36896</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36897</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36911</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>36912</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36926</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>36927</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36939</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>36940</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36955</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36956</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36986</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36987</v>
+      </c>
+      <c r="C9" s="3">
+        <v>37017</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>37018</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37037</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37038</v>
+      </c>
+      <c r="C11" s="3">
+        <v>37041</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>37042</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37048</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36911</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36912</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36926</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>36927</v>
+      </c>
+      <c r="C15" s="4">
+        <v>36927</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36928</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36955</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36956</v>
+      </c>
+      <c r="C17" s="1">
+        <v>36986</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36987</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37017</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37018</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37048</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36952</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>36953</v>
+      </c>
+      <c r="C21" s="4">
+        <v>37318</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>37319</v>
+      </c>
+      <c r="C22" s="1">
+        <v>37369</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C23" s="1">
+        <v>36952</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>36953</v>
+      </c>
+      <c r="C24" s="4">
+        <v>37318</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>37319</v>
+      </c>
+      <c r="C25" s="1">
+        <v>37369</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>36892</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36952</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>36953</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36953</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>36954</v>
+      </c>
+      <c r="C28" s="1">
+        <v>37254</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>37255</v>
+      </c>
+      <c r="C29" s="1">
+        <v>37305</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>36954</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37254</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>37255</v>
+      </c>
+      <c r="C31" s="1">
+        <v>37305</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36954</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37254</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>37255</v>
+      </c>
+      <c r="C33" s="1">
+        <v>37305</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>36954</v>
+      </c>
+      <c r="C34" s="1">
+        <v>37254</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>37255</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37305</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.92578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36888</v>
+      </c>
+      <c r="C2" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36916</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36955</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>36962</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36982</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37018</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>37046</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>36888</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>36927</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36955</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36982</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>37001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>37018</v>
+      </c>
+      <c r="C17" s="1">
+        <v>37034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>37046</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>36890</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>36932</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>37317</v>
+      </c>
+      <c r="C23" s="4">
+        <v>37317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>37369</v>
+      </c>
+      <c r="C24" s="1">
+        <v>37369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>36893</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>36932</v>
+      </c>
+      <c r="C28" s="1">
+        <v>36937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>37319</v>
+      </c>
+      <c r="C29" s="4">
+        <v>37319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>37369</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>36890</v>
+      </c>
+      <c r="C31" s="1">
+        <v>36894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36896</v>
+      </c>
+      <c r="C32" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>36906</v>
+      </c>
+      <c r="C33" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>36956</v>
+      </c>
+      <c r="C34" s="4">
+        <v>36956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>37043</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>37253</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>37302</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37235</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37254</v>
+      </c>
+      <c r="C39" s="1">
+        <v>37254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>37297</v>
+      </c>
+      <c r="C40" s="1">
+        <v>37302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>37255</v>
+      </c>
+      <c r="C41" s="1">
+        <v>37255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>37254</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -798,12 +1799,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
